--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,84 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Based on the system mismatched policies in the given text, here are the suggested remedies:</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1. The system's ability to handle simultaneous loan applications without performance degradation should be evaluated and resilience measures should be implemented.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2. OTP-based authentication protocols for loan sanction and e-agreement signing should be integrated into the system.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3. The system should be securely and seamlessly integrated with the core banking system to facilitate loan disbursement and real-time data exchange.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4. Implement real-time capabilities to fetch credit scores from Experian or CIBIL accurately.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5. Language support should be enhanced to include both English and Hindi, covering all features, instructions, and customer communications.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6. Implement measures to ensure loan disbursement is only done through verified bank accounts with robust secure verification processes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7. The system should be optimized for responsiveness and compatibility with different devices and browsers, including a quick website app load time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8. There is a need to expedite the loan application and approval process to reduce the TAT to 2 hours.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9. Automate data collection where possible to reduce manual data entry, aiming for a minimum of 80% reduction.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10. System accuracy in eligibility checks should be optimized to achieve at least 90% accuracy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11. Create a clear project timeline and deliverable dates, including UAT by 1 June 2025 and going live by 1 July 2025, and further develop escalation procedures to promptly address any timeline delays.</t>
+          <t>compliance_remedies_20250521_153619.xlsx</t>
         </is>
       </c>
     </row>

--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>compliance_remedies_20250521_153619.xlsx</t>
+          <t>compliance_remedies_20250522_111432.xlsx</t>
         </is>
       </c>
     </row>

--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Remedies</t>
+  </si>
+  <si>
+    <t>Based on the identified mismatched policies, here are the suggested remedies:</t>
+  </si>
+  <si>
+    <t>- Implement an online platform that ensures maximum availability, ideally with a downtimes of only 0.5% annually.</t>
+  </si>
+  <si>
+    <t>- Integrate real-time KYC document verification using OCR and face match technology into the system.</t>
+  </si>
+  <si>
+    <t>- The system should be capable of integrating with credit bureaus like CIBIL, this should facilitate fetching of credit scores while ensuring customers' data remains confidential.</t>
+  </si>
+  <si>
+    <t>- Implement a core banking interface for seamless and secure disbursements.</t>
+  </si>
+  <si>
+    <t>- The system should support Hindi language along with English, facilitating better customer reach.</t>
+  </si>
+  <si>
+    <t>- Ensure the system is responsive and compatible across various devices and web browsers to facilitate all users.</t>
+  </si>
+  <si>
+    <t>- Accuracy rate in eligibility checks should be brought up to a minimum of 90% for fair and accurate loan approval processes.</t>
+  </si>
+  <si>
+    <t>- The system should be improved to reduce Turnaround Time (TAT) from current timelines to about 2 hours.</t>
+  </si>
+  <si>
+    <t>- Implement automation and AI tools to reduce manual data entry work by up to 80%.</t>
+  </si>
+  <si>
+    <t>- Follow a timeline that allows for system readiness for UAT by 1st June 2025 and go-live by 1st July 2025.</t>
+  </si>
+  <si>
+    <t>- The system must be flexible enough to adapt to any compliance changes due to upcoming RBI guidelines.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,34 +409,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Remedies</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>compliance_remedies_20250522_111432.xlsx</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -14,45 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Remedies</t>
   </si>
   <si>
-    <t>Based on the identified mismatched policies, here are the suggested remedies:</t>
-  </si>
-  <si>
-    <t>- Implement an online platform that ensures maximum availability, ideally with a downtimes of only 0.5% annually.</t>
-  </si>
-  <si>
-    <t>- Integrate real-time KYC document verification using OCR and face match technology into the system.</t>
-  </si>
-  <si>
-    <t>- The system should be capable of integrating with credit bureaus like CIBIL, this should facilitate fetching of credit scores while ensuring customers' data remains confidential.</t>
-  </si>
-  <si>
-    <t>- Implement a core banking interface for seamless and secure disbursements.</t>
-  </si>
-  <si>
-    <t>- The system should support Hindi language along with English, facilitating better customer reach.</t>
-  </si>
-  <si>
-    <t>- Ensure the system is responsive and compatible across various devices and web browsers to facilitate all users.</t>
-  </si>
-  <si>
-    <t>- Accuracy rate in eligibility checks should be brought up to a minimum of 90% for fair and accurate loan approval processes.</t>
-  </si>
-  <si>
-    <t>- The system should be improved to reduce Turnaround Time (TAT) from current timelines to about 2 hours.</t>
-  </si>
-  <si>
-    <t>- Implement automation and AI tools to reduce manual data entry work by up to 80%.</t>
-  </si>
-  <si>
-    <t>- Follow a timeline that allows for system readiness for UAT by 1st June 2025 and go-live by 1st July 2025.</t>
-  </si>
-  <si>
-    <t>- The system must be flexible enough to adapt to any compliance changes due to upcoming RBI guidelines.</t>
+    <t>- Introduce a module to connect with credit bureau (CIBIL) APIs to validate credit scores in real-time.</t>
+  </si>
+  <si>
+    <t>- Implement a compliance framework that aligns with the Fair Credit Reporting Act, ensuring credit decisions are fair and accurate.</t>
+  </si>
+  <si>
+    <t>- Incorporate OTP-based authentication for lending and e-signing in agreement with the Electronic Signatures in Global and National Commerce Act.</t>
+  </si>
+  <si>
+    <t>- Develop an interface to integrate the system with the bank's core banking system for seamless transactions.</t>
+  </si>
+  <si>
+    <t>- Add multilingual support (English and Hindi) to enhance system accessibility for diverse users.</t>
+  </si>
+  <si>
+    <t>- Build a mechanism to handle compliance changes posed by upcoming RBI guidelines for system adaptability.</t>
+  </si>
+  <si>
+    <t>- Launch an initiative to decrease the Turnaround Time (TAT) from 5 days to 2 hours for efficient loan processing.</t>
+  </si>
+  <si>
+    <t>- Aim for an 80% reduction in manual data entry and a 90% accuracy in eligibility checks for improved loan processing.</t>
+  </si>
+  <si>
+    <t>- Convert the system into a responsive web application to ensure accessible use across various devices and platforms.</t>
+  </si>
+  <si>
+    <t>- Make the system compliant with the Accessibility for Ontarians with Disabilities Act (AODA) to support users with disabilities.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,16 +465,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -14,39 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Remedies</t>
   </si>
   <si>
-    <t>- Introduce a module to connect with credit bureau (CIBIL) APIs to validate credit scores in real-time.</t>
-  </si>
-  <si>
-    <t>- Implement a compliance framework that aligns with the Fair Credit Reporting Act, ensuring credit decisions are fair and accurate.</t>
-  </si>
-  <si>
-    <t>- Incorporate OTP-based authentication for lending and e-signing in agreement with the Electronic Signatures in Global and National Commerce Act.</t>
-  </si>
-  <si>
-    <t>- Develop an interface to integrate the system with the bank's core banking system for seamless transactions.</t>
-  </si>
-  <si>
-    <t>- Add multilingual support (English and Hindi) to enhance system accessibility for diverse users.</t>
-  </si>
-  <si>
-    <t>- Build a mechanism to handle compliance changes posed by upcoming RBI guidelines for system adaptability.</t>
-  </si>
-  <si>
-    <t>- Launch an initiative to decrease the Turnaround Time (TAT) from 5 days to 2 hours for efficient loan processing.</t>
-  </si>
-  <si>
-    <t>- Aim for an 80% reduction in manual data entry and a 90% accuracy in eligibility checks for improved loan processing.</t>
-  </si>
-  <si>
-    <t>- Convert the system into a responsive web application to ensure accessible use across various devices and platforms.</t>
-  </si>
-  <si>
-    <t>- Make the system compliant with the Accessibility for Ontarians with Disabilities Act (AODA) to support users with disabilities.</t>
+    <t>- Add digitization of the loan origination process to company policy as it is currently not included. This can involve enabling customers to apply, get an eligibility assessment, upload KYC documents, track the application status, and receive approval digitally for personal loans.</t>
+  </si>
+  <si>
+    <t>- Include fetching of credit scores from CIBIL for customer eligibility assessment in company policy.</t>
+  </si>
+  <si>
+    <t>- Incorporate an AI-based risk assessment module in platform design as per compliance.</t>
+  </si>
+  <si>
+    <t>- Add real-time document verification feature to ensure the authenticity of the uploaded customer documents to company policy.</t>
+  </si>
+  <si>
+    <t>- Include OTP-based agreement signing for security and authenticity in the company policies.</t>
+  </si>
+  <si>
+    <t>- Insert policy regarding integration of the platform with the core banking system for loan disbursement.</t>
+  </si>
+  <si>
+    <t>- Include API integration with Credit Bureau in company policy. Make sure to have alternative solutions ready in case of API access delay.</t>
+  </si>
+  <si>
+    <t>- Add policy on making the platform user-friendly and intuitive to make it accessible to all customers.</t>
+  </si>
+  <si>
+    <t>- Include in company's policy the flexibility and adaptability of the platform to future RBI guidelines.</t>
+  </si>
+  <si>
+    <t>- Set a start date for the platform development as 1st April 2025 and User Acceptance Testing (UAT) as 1st June 2025 as per AI generated policies.</t>
+  </si>
+  <si>
+    <t>- Target the platform to go live by 1st July 2025 as per compliance.</t>
+  </si>
+  <si>
+    <t>- Include a robust error handling and reporting mechanism in company policy.</t>
+  </si>
+  <si>
+    <t>- Add feature to track application status, providing real-time updates to customers about their loan application to company policy.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,6 +474,21 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -14,48 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Remedies</t>
   </si>
   <si>
-    <t>- Add digitization of the loan origination process to company policy as it is currently not included. This can involve enabling customers to apply, get an eligibility assessment, upload KYC documents, track the application status, and receive approval digitally for personal loans.</t>
-  </si>
-  <si>
-    <t>- Include fetching of credit scores from CIBIL for customer eligibility assessment in company policy.</t>
-  </si>
-  <si>
-    <t>- Incorporate an AI-based risk assessment module in platform design as per compliance.</t>
-  </si>
-  <si>
-    <t>- Add real-time document verification feature to ensure the authenticity of the uploaded customer documents to company policy.</t>
-  </si>
-  <si>
-    <t>- Include OTP-based agreement signing for security and authenticity in the company policies.</t>
-  </si>
-  <si>
-    <t>- Insert policy regarding integration of the platform with the core banking system for loan disbursement.</t>
-  </si>
-  <si>
-    <t>- Include API integration with Credit Bureau in company policy. Make sure to have alternative solutions ready in case of API access delay.</t>
-  </si>
-  <si>
-    <t>- Add policy on making the platform user-friendly and intuitive to make it accessible to all customers.</t>
-  </si>
-  <si>
-    <t>- Include in company's policy the flexibility and adaptability of the platform to future RBI guidelines.</t>
-  </si>
-  <si>
-    <t>- Set a start date for the platform development as 1st April 2025 and User Acceptance Testing (UAT) as 1st June 2025 as per AI generated policies.</t>
-  </si>
-  <si>
-    <t>- Target the platform to go live by 1st July 2025 as per compliance.</t>
-  </si>
-  <si>
-    <t>- Include a robust error handling and reporting mechanism in company policy.</t>
-  </si>
-  <si>
-    <t>- Add feature to track application status, providing real-time updates to customers about their loan application to company policy.</t>
+    <t>- Remedy 1: Incorporate a responsive design feature into the Digital Loan Application and Approval System for compatibility across all web browsers and devices.</t>
+  </si>
+  <si>
+    <t>- Remedy 2: Develop an AI-based eligibility module that guarantees at least 90% accuracy in eligibility checks.</t>
+  </si>
+  <si>
+    <t>- Remedy 3: Work on system integration with CIBIL for credit scoring that doesn't interfere with the loan application process timeline.</t>
+  </si>
+  <si>
+    <t>- Remedy 4: Implement a secure OTP mechanism into the loan approval process to safeguard the validation proceedings.</t>
+  </si>
+  <si>
+    <t>- Remedy 5: Integrate the system with the bank's existing framework to streamline loan disbursement exclusively through validated bank accounts.</t>
+  </si>
+  <si>
+    <t>- Remedy 6: Modification of the system to exclude modules pertaining to home, car, and business loans or agent-assisted processes for Tier 3 regions.</t>
+  </si>
+  <si>
+    <t>- Remedy 7: Develop a feasible project timeline that ensures the system is ready for User Acceptance Testing (UAT) by June 1, 2025, and goes live by July 1, 2025.</t>
+  </si>
+  <si>
+    <t>- Remedy 8: Update the system to support the English language.</t>
+  </si>
+  <si>
+    <t>- Remedy 9: Enhance the system's features to minimize manual data entry by at least 80%.</t>
+  </si>
+  <si>
+    <t>- Remedy 10: Optimize the system to cut down the loan application and approval turnaround time from five days to two hours.</t>
+  </si>
+  <si>
+    <t>- Remedy 11: Include a requirement in the system for all clients to have an Aadhaar-linked mobile number for OTP verification processes.</t>
+  </si>
+  <si>
+    <t>- Remedy 12: Develop a real-time loan status dashboard to keep clients informed about their loan status.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,11 +481,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/outputs/remediation.xlsx
+++ b/src/outputs/remediation.xlsx
@@ -14,45 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Remedies</t>
   </si>
   <si>
-    <t>- Remedy 1: Incorporate a responsive design feature into the Digital Loan Application and Approval System for compatibility across all web browsers and devices.</t>
-  </si>
-  <si>
-    <t>- Remedy 2: Develop an AI-based eligibility module that guarantees at least 90% accuracy in eligibility checks.</t>
-  </si>
-  <si>
-    <t>- Remedy 3: Work on system integration with CIBIL for credit scoring that doesn't interfere with the loan application process timeline.</t>
-  </si>
-  <si>
-    <t>- Remedy 4: Implement a secure OTP mechanism into the loan approval process to safeguard the validation proceedings.</t>
-  </si>
-  <si>
-    <t>- Remedy 5: Integrate the system with the bank's existing framework to streamline loan disbursement exclusively through validated bank accounts.</t>
-  </si>
-  <si>
-    <t>- Remedy 6: Modification of the system to exclude modules pertaining to home, car, and business loans or agent-assisted processes for Tier 3 regions.</t>
-  </si>
-  <si>
-    <t>- Remedy 7: Develop a feasible project timeline that ensures the system is ready for User Acceptance Testing (UAT) by June 1, 2025, and goes live by July 1, 2025.</t>
-  </si>
-  <si>
-    <t>- Remedy 8: Update the system to support the English language.</t>
-  </si>
-  <si>
-    <t>- Remedy 9: Enhance the system's features to minimize manual data entry by at least 80%.</t>
-  </si>
-  <si>
-    <t>- Remedy 10: Optimize the system to cut down the loan application and approval turnaround time from five days to two hours.</t>
-  </si>
-  <si>
-    <t>- Remedy 11: Include a requirement in the system for all clients to have an Aadhaar-linked mobile number for OTP verification processes.</t>
-  </si>
-  <si>
-    <t>- Remedy 12: Develop a real-time loan status dashboard to keep clients informed about their loan status.</t>
+    <t>- Optimize the digital loan application and approval system to have a response time of less than 2 seconds. This can be done by improving the system's speed and performance and reducing latency through the use of efficient algorithms and data structures.</t>
+  </si>
+  <si>
+    <t>- Upgrade the system's capacity to handle a minimum of 10,000 concurrent users by investing in resources or servers that can handle higher traffic. This should be done in collaboration with the IT department to ensure smooth implementation.</t>
+  </si>
+  <si>
+    <t>- Ensure the web application to be responsive and compatible with all major browsers and devices. Enhance current designs or develop new designs in consideration of all major design and layout standards to improve accessibility and user experience.</t>
+  </si>
+  <si>
+    <t>- Design the system in a modular manner to allow for easy updates and maintenance. Implement a modular structure, where individual components can be updated or replaced independently without affecting the entire system.</t>
+  </si>
+  <si>
+    <t>- Set up a robust system infrastructure backed with efficient server and network management that can ensure a minimum system uptime of 99.9%. Regular checks, maintenance, and failover strategies should be put in place to mitigate any possible downtime.</t>
+  </si>
+  <si>
+    <t>- Improve the response time in the AI-based risk assessment module ensuring results are provided within 5 seconds of receiving the necessary inputs. This can be carried out by optimizing the risk calculation algorithms and adopting more efficient technologies.</t>
+  </si>
+  <si>
+    <t>- Establish a verification process to ensure loans are only disbursed to verified bank accounts. This can be achieved by integrating the loan disbursal system with bank APIs that confirm the authenticity of the bank accounts prior to disbursal or by implementing manual verification processes.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,31 +441,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
